--- a/Spreadsheet Interface/Examples/Run_of_River_Complex_Network_Cabot_Station.xlsx
+++ b/Spreadsheet Interface/Examples/Run_of_River_Complex_Network_Cabot_Station.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kleinschmidtgroup-my.sharepoint.com/personal/kevin_nebiolo_kleinschmidtgroup_com/Documents/Software/stryke/Spreadsheet Interface/Examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_8DA290FE566CEF7CAF9EEBF835DBF453A269FE7D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03B28D99-B3C2-41FC-85AD-A0FA8857D642}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_9A56673BC0B6A7C92BB821F9352EFC10F4D5095F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4DE7418D-7E61-4813-8C20-6DDD9B03C68C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="908" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" tabRatio="908" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Background and Metadata" sheetId="1" r:id="rId1"/>
@@ -1394,7 +1394,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:BG16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -26342,8 +26344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:HA13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26686,7 +26688,7 @@
         <v>0.4118</v>
       </c>
       <c r="L13">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="O13">
         <v>1.6</v>
